--- a/backend/training/data/de_H_train_spacy.xlsx
+++ b/backend/training/data/de_H_train_spacy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B563"/>
+  <dimension ref="A1:B532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,5124 +448,5124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>er 2 der hase ist blau 3 der hase der ein keks isst</t>
+          <t>Der Hase der den Keks isst hat eine andere Farbe und ist jetzt hellblau</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gender=Masc|Person=3|Number=Sing|Case=Nom Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind  Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>der hase der fällt</t>
+          <t>Das Haus auf dem das Schaf springt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>der ball der rollt</t>
+          <t>Der Frosch welcher von den zwei Enten gewaschen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>das pferd das die kühe zieht</t>
+          <t>Der erste Hase der vorne ist und hinfällt hat die Farbe hellblau</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind  Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>die hunde dass die hunde die vom schaf ge&gt;fang&lt;en werden</t>
+          <t>Der rollende Ball hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc Case=Dat Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>der hund der den ball zuge&gt;worf&lt;en kriegt</t>
+          <t>Das Huhn welches von der Maus einen Pfirsich empfängt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>der hund der die zwei schafe wäscht</t>
+          <t>Das Pferd welches beide Kühe und das Pferd zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Case=Nom Number=Plur|Case=Acc Case=Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>das bett worauf die katze springt</t>
+          <t>Das Bett auf dem die Katze springt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>die ziegen die die katze schubsen</t>
+          <t>Das Huhn welches von dem Frosch einen Apfel zugeworfen bekommt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>der löwe der die zwei kühe zieht</t>
+          <t>Der Baum unter dem die Ziege sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>das huhn der von der maus ein pfirsich kriegt</t>
+          <t>Die zwei Hunde welche von dem Schaf gefangen werden haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Number=Plur|Case=Nom Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>das haus wo das schaf rausspringt</t>
+          <t>Der Tisch unter dem ein Frosch sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>die frösche die die enten fangen</t>
+          <t>der Hund welcher die zwei Schafe wäscht hat eine andere</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>der frosch der von den enten ge&gt;wasch&lt;en wird</t>
+          <t>Die zwei Frösche welche die Ente fangen haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat   Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>die zwei pferde die von der kuh ge&gt;schubs&lt;t werden</t>
+          <t>Der Löwe der die Kühe zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>das huhn der von dem frosch einen apfel zuge&gt;worf&lt;en kriegt</t>
+          <t>Die Katze die von der Ente eine Blume bekommt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>der löwe der von den zwei katzen ge&gt;zog&lt;en wird</t>
+          <t>die zwei Ziegen welche die Katze schubsen haben eine andere</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>der baum wo drunter die ziege sitzt</t>
+          <t>Der Hund welcher von dem Huhn einen Ball zugeworfen bekommt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom   PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>türkis und keks essen 2 der keks isst</t>
+          <t>Die zwei Pferde die von der Kuh geschubst werden haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Number=Sing  Person=2 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>der der hinplumpst der hase</t>
+          <t>Der Löwe der von den beiden Katzen gezogen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>den ball der rollt und ich türkis</t>
+          <t>der Hase der einen Keks isst</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind  Person=1|Number=Sing|Case=Nom </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>den pferd der da die zwei kühen ziehen ist türkis</t>
+          <t>das Haus auf dem das Schaf springt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>den baum der die ziege ist türkis</t>
+          <t>der Löwe der von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>die zwei fröschen der die ente fangen ist türkis</t>
+          <t>der Ball der rollt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>den hund der soll fängt den ball ist türkis</t>
+          <t>die zwei Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>auf den betten der die katze springt ist türkis den bett</t>
+          <t>das Pferd das die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>die zwei pferden da wurden ge&gt;schubs&lt;t von ner kuh</t>
+          <t>der Tisch unter dem der Frosch sitzt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Dat  Number=Plur|PronType=Ind   PronType=Art|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>den huhn und da kriegen der pfirsich ist türkis</t>
+          <t>die Katze der die Ente eine Blume gibt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing   Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>auf den haus der den schaf spring ist türkis</t>
+          <t>der Hund der die zwei Schafe wäscht</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>den tisch der die der die den frosch sitzen unter da den tisch ist türkis ist türkis</t>
+          <t>das Huhn dem die Maus einen Pfirsich gibt</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind   PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind  Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>die zwei hunden da wurden ge&gt;fang&lt;en vom vom schaf</t>
+          <t>die zwei Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Dat  Number=Plur|PronType=Ind  Case=Dat Case=Dat Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>den löwe da ziehen die zwei kühe</t>
+          <t>die zwei Hunde die vom Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>die ziege da schubsen die katze die ziege ist türkis</t>
+          <t>der Baum unter dem die Ziege sitzt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>den hund der schwimmt sauber machen die schafe</t>
+          <t>die zwei Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind  Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>den löwe der war ge&gt;zieh&lt;t von die zwei katzen</t>
+          <t>der Hund dem der Ball vom Huhn zugeworfen wird</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|PronType=Ind   PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>die katze da kriegen von der ente noch ne blume</t>
+          <t>das Huhn dem der Frosch einen Apfel zuwirft</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>den frosch der ge&gt;wasch&lt;t worden von die zwei enten</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom    PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>den hund der kriegen ein apfel 2 vom frosch</t>
+          <t>der Frosch der von den zwei Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=2 Case=Dat Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>der hase der den keks isst</t>
+          <t>das Bett auf dem die Katze springt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>der hase der gerade auf den popo fällt</t>
+          <t>der Hase der den Keks isst</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>der ball der rollt</t>
+          <t>die zwei Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>das pferd das die kühe zieht</t>
+          <t>der Hund der von dem Huhn das Ei zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>wo drunter die ziege sitzt ist der baum ne andere farbe</t>
+          <t>der Ball der rollt</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>die zwei frösche die hinten sind</t>
+          <t>der Löwe der die beiden Kühe zieht</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  Person=3|Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>der hund der die schafe wäscht</t>
+          <t>das Pferd das die beiden Kühe zieht</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>der hund der gerade keinen ball wirft</t>
+          <t>die beiden Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>der löwe der gerade läuft</t>
+          <t>der Baum unter dem die Ziege sitzt</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>die zwei ziegen die die katze schubsen</t>
+          <t>die beiden Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Number=Plur|Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>der tisch wo da drunter ein frosch sitzt</t>
+          <t>das Huhn das von einer Maus den Pfirsich bekommt</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom    PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>der löwe der gerade die kühe zieht</t>
+          <t>der Tisch unter dem ein Frosch sitzt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>die zwei pferde die gerade nix machen</t>
+          <t>das Huhn das von dem Frosch einen Apfel zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc   Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>das huhn die einfach nur steht</t>
+          <t>die zwei Hunde die von dem Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc   Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>das bett wo drauf die katze springt</t>
+          <t>der Hund der die zwei Schafe wäscht</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc   PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>die zwei hunde die nix machen</t>
+          <t>der Frosch der von den zwei Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>das huhn was steht</t>
+          <t>der Löwe der von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>der ist blau</t>
+          <t>das Bett auf dem die Katze springt</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>der hase fällt hin</t>
+          <t>das Haus auf dem das Schaf hüpft</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>der ball rollt</t>
+          <t>die Katze die von der Ente eine Blume geschenkt bekommt</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>weiß ich nicht 2 das pferd zieht die kühe</t>
+          <t>Der keksessende Hase hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom  Person=2 PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>weiß ich nicht 2 der hund wirft den ball zu 3 weiß ich nicht</t>
+          <t>Das Huhn welches vom Frosch einen Apfel geworfen bekommt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom  Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc  Person=3 Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom </t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>die zwei frösche fangen die ente</t>
+          <t>Der Hund der von dem Huhn den Ball geworfen bekommt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>der löwe zieht die kühe</t>
+          <t>Der rollende Ball hat jetzt eine andere Farbe. Der rollende Ball ist jetzt türkis geworden</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind   </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>da ist ein frosch 2 der tisch ist blau 3 weiß ich nicht</t>
+          <t>Der Frosch der von den zwei Enten gewaschen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind  Person=3 Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Number=Plur|Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>weiß ich nicht 2 die ziege fängt die zwei hünde 3 weiß ich nicht 4 die zwei hünde 5 ich weiß nicht</t>
+          <t>Das Pferd welches die zwei Kühe zieht hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom  Person=2 PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Person=3 Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom   PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc  Person=1|Number=Sing|Case=Nom Person=1|Number=Sing|Tense=Pres|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>die katze springt auf dem bett 2 weiß ich nicht 3 weiß ich nicht</t>
+          <t>Das Haus auf dem ein Schaf springt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Person=2 Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom  Person=3 Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom </t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|PronType=Ind|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>weiß ich nicht 2 die maus gibt den huhn einen pfirsich 3 der huhn</t>
+          <t>Das Bett auf dem die Katze springt hat eine andere Farbe bekommen</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom  Person=2 PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>die zwei enten waschen den frosch 2 der frosch 3 der frosch wascht die zwei enten</t>
+          <t>Der Hund der die zwei Schafe wäscht der hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>die zwei pferde die dort sind schubsen die kuh und die kuh schubsen die zwei pferde 2 die zwei pferde</t>
+          <t>Die zwei Pferde die von der Kuh geschubst werden die haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  Person=3|Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Person=2 PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind PronType=Dem|Number=Plur|Case=Nom Person=3|Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>der andere schaf springt auf dem bett 2 der haus</t>
+          <t>Die Katze die von der Ente eine Blume bekommt hat eine andere Farbe bekommen</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Number=Sing Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>die ente gibt ihm eine blume 2 die katze</t>
+          <t>Der Tisch unter dem ein Frosch sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind Gender=Masc|Person=3|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Person=2 PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|PronType=Ind|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>die ziegen schubsen die katze</t>
+          <t>Die zwei Ziegen die die Katze schubsen haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>der frosch wirft den apfel zu 2 der huhn 3 weiß ich nicht</t>
+          <t>Die zwei Hunde die vom Schaf gefangen werden die haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing Person=3 Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom </t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Tense=Pres|PronType=Ind PronType=Dem|Number=Plur|Case=Nom Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>weiß ich nicht 2 die zwei katzen ziehen den löwen 3 weiß ich nicht</t>
+          <t>Der Löwe der von den zwei Katzen gezogen wird der hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom  Person=2 PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing|Case=Acc Person=3 Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>weiß ich nicht 2 der hund wascht die zwei schafe</t>
+          <t>Der Löwe der die zwei Kühe zieht der hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom  Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>weiß ich nicht 2 weiß ich nicht 3 weiß ich gar nicht</t>
+          <t>Der Baum unter dem eine Ziege sitzt der hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom  Person=2 Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom  Person=3 Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom  </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>trau mich gar nicht 2 der hat ne hellblaue farbe 3 weiß ich gar nicht 4 ne hellblaue farbe 5 isst einen keks</t>
+          <t>Die zwei Frösche die die Ente fangen haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Acc   Person=2 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Person=3 Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom    PronType=Art|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|PronType=Ind PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>der der hinfällt</t>
+          <t>Der Hase der den Keks isst hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>der ball der rollt</t>
+          <t>Der Baum unter dem die sitzende Ziege sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>das pferd die kühe zieht</t>
+          <t>die Katze die von der Ente eine Blume erhät</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>dieser löwe die katzen zieht</t>
+          <t>Der vordere Hase der hinfällt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>der die maus einen pfirsich gibt</t>
+          <t>Der rollende Ball hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>die zwei hünde 2 die hünde 3 trau mich gar nicht</t>
+          <t>Die zwei Pferde die von der Kuh geschubst werden haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Person=2 PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Person=3 Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Acc  </t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>die sachen die die schafe waschen</t>
+          <t>Das Pferd das die zwei Kühe zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>der die die enten waschen den anderen frosch 2 der frosch 3 will ein anderes bild</t>
+          <t>Eine andere Farbe hat der Löwe der vorneweg die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3 Person=1|Number=Sing|PronType=Ind PronType=Art|Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>dieser hund</t>
+          <t>Der Hund hinten der die zwei Schafe wäscht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dieser bett wo die katze springt</t>
+          <t>Der Hund der von dem Huhn einen Ball zugeworfen bekommt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Number=Sing|Case=Nom Number=Sing  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>wo das schaf auf das haus springt</t>
+          <t>Das Haus auf dem ein Schaf hüpft hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|PronType=Ind|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>wo die ziege an dem baum sitzt 2 wo die ziege an dem baum sitzt</t>
+          <t>Die zwei Hunde die vom Schaf geschoben werden oder geschubst werden haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind Person=2  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind   Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>die zwei ziegen die zwei die die katze schubsen</t>
+          <t>Eine andere Farbe haben die zwei Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>die frösche die die ente fangen</t>
+          <t>Der vordere Frosch der von den beiden Enten gewaschen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>der frosch wo der frosch unter den tisch sitzt</t>
+          <t>Der Löwe der von den zwei Katzen gezogen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>der löwe die die kühe die ziehen</t>
+          <t>Eine andere Farbe hat das Huhn welches von einem Frosch einen Apfel zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Dem|Number=Plur|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Case=Nom  PronType=Art|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>die ente die die katze eine blume gibt</t>
+          <t>Das Bett auf dem die Katze springt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>die kuh die zwei pferde schubst</t>
+          <t>Das Huhn was von der Maus einen Pfirsich bekommt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc   Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>der den keks isst 2 der der hat ne türkise farbe 3 dieser 4 ne andere farbe</t>
+          <t>Eine andere Farbe hat der Tisch unter dem der Frosch sitzt</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=2 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Person=3 Number=Sing|Case=Nom  PronType=Art|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>dieser der hinfällt</t>
+          <t>Die zwei Ziegen die die Katze schieben haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>der der rollt der ball der rollt</t>
+          <t>der Hase der einen Keks isst</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>das pferd das die kühe zieht</t>
+          <t>der Hund der die Schafe wäscht</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>das huhn das das einen pfirsich in der hand hat 2 das huhn 3 kriegt einen pfirsich 4 bekommt noch nen pfirsich</t>
+          <t>der Frosch der von den Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Person=3 Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>der frosch der vorne lauft und die enten der frosch der lauft hat ne andere farbe</t>
+          <t>der Hase der hinfällt</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>der tisch unter dem frosch</t>
+          <t>der Ball der rollt</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>die katze die andere katze 2 die katze die noch eine blume kriegt</t>
+          <t>die Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Person=2 PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>der löwe der die kühe zieht</t>
+          <t>das Pferd das die Kühe zieht</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>der huhn der zu den hund wirft 2 der huhn wirft den ball zu den hund</t>
+          <t>das Schaf das auf dem Haus springt</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>die katzen der den löwen ziehen 2 dieser löwe 3 der andere löwe der hinter den katzen</t>
+          <t>das Bett auf dem die Katze springt</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Person=2 Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>der haus von den schaf wo er auf den schaf springt auf den popo</t>
+          <t>der Tisch unter dem der Frosch sitzt</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc  Gender=Masc|Person=3|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>die ziegen die die katze schubsen da hinten</t>
+          <t>der Hund dem der Ball zugeworfen wird</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind  </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>der huhn die die schafe waschen</t>
+          <t>die zwei Hunde die vom Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>die hunde die da vorne von den schaf ge&gt;schubs&lt;t werden da vorne</t>
+          <t>der Baum unter dem die Ziege sitzt</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc    PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc  Number=Plur|Tense=Pres|PronType=Ind  </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>frösche die die ente fangen</t>
+          <t>der Löwe der von den Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>der baum wo die ziege sitzt</t>
+          <t>die Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Person=3|Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>das bett hinten von der katze wo der auf den popo springt</t>
+          <t>die Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc   PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>der der den keks isst</t>
+          <t>das Huhn das von dem Frosch den Apfel zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>der hase der hinge&gt;fall&lt;en ist</t>
+          <t>das Huhn das von der Maus einen Pfirsich bekommt</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>der ball der ge&gt;roll&lt;t hat</t>
+          <t>die Katze die von der Ente eine Blume bekommt</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Gender=Fem|Number=Sing|Case=Acc Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>das pferd das die kühe zieht</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>der löwe der die kühe zieht</t>
+          <t>Der Hase der einen Keks ist hat die andere Farbe</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>die ziegen die die katze schubsen</t>
+          <t>Die Hunde die vom Schaf gefangen wurden haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom Case=Nom PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>die katze die von ner ente die blume bekommen hat hier</t>
+          <t>Das Bett auf dem die Katze springt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>das bett worauf die katze springt</t>
+          <t>Der Hase der hinfällt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>das huhn das von der maus einen pfirsich kriegt</t>
+          <t>Der rollende Ball hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>das huhn wo der frosch ihm einen apfel zuwirft</t>
+          <t>Die Katze die von der Gans eine Blume erhält hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Person=3|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>der hund der die schafe wäscht</t>
+          <t>Das Pferd was die Kühe zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>der frosch die die enten sauber machen</t>
+          <t>Die Pferde die von der Kuh geschubst werden haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom Case=Nom PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>der baum worunter die ziege sitzt</t>
+          <t>Die Ziegen die die Katze schubsen haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>die hunde die das schaf fangen</t>
+          <t>Der Hund der die Schafe wäscht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>der hund dem das huhn einen ball zuwirft</t>
+          <t>Der Hund der den Ball zugeworfen bekommt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>der tisch wo der frosch drunter sitzt</t>
+          <t>Der Löwe der gezogen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>der löwe der von den katzen ge&gt;zog&lt;en wurde</t>
+          <t>Der Löwe der die Kühe zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>die pferde die die kugel schubst hat</t>
+          <t>Das Huhn das den Pfirsich erhält hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>die frösche die die ente schubsen</t>
+          <t>Der Frosch der gewaschen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Number=Plur|Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>das haus worauf das schaf springt</t>
+          <t>Der Baum unter dem die Ziege sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>der hase der hinfällt</t>
+          <t>Das Haus auf dem das Schaf springt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>der ball der rollt</t>
+          <t>Die Frösche die die Ente fangen haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>das pferd das die kühe zieht</t>
+          <t>Der Tisch unter dem der Frosch sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>das haus dort wo der hase drauf springt</t>
+          <t>der Hase der einen Keks isst</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc   PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>zwei ziegen die die katze schieben</t>
+          <t>der Hund welcher die zwei Schafe wäscht</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>der hund der die zwei schafe wäscht</t>
+          <t>der Baum unter dem die Ziege sitzt</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>der hund der den ball fangen soll</t>
+          <t>der hingefallene Hase</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>das bett dort wo die katze drauf springt</t>
+          <t>der rollende Ball</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc   PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>der löwe der gezieht wird</t>
+          <t>das Bett auf welchem die Katze springt</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>der baum dort wo die ziege sitzt</t>
+          <t>das Pferd welches die zwei kühe zieht</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom   PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>die zwei pferde die die kuh schubst</t>
+          <t>der Hund welcher von dem Huhn einen Ball zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>die frösche die die ente fangen</t>
+          <t>das Huhn welches von der Maus einen Pfirsich bekommt</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>der frosch der gewaschen wird</t>
+          <t>die zwei Frösche welche die Ente fangen</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Number=Plur|Case=Nom/Acc Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>der löwe der die zwei kühe zieht</t>
+          <t>die zwei Ziegen welche die Katze schubsen</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>das huhn das den apfel fängen soll</t>
+          <t>der Löwe welcher die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>die zwei hunde die von den schaf gefangen werden</t>
+          <t>der Tisch unter welchem der Frosch sitzt</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>der tisch dort drunter wo der frosch sitzt</t>
+          <t>der Frosch welcher von den zwei Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom    PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>der blaue hase 2 der blaue 3 er isst einen keks</t>
+          <t>das Haus auf welchem das Schaf springt</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing Gender=Masc|Number=Sing|Case=Nom Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing Person=3 Gender=Masc|Person=3|Number=Sing|Case=Nom Number=Sing|PronType=Ind PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>der ball der rollt</t>
+          <t>der Löwe welcher von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>der pferd die die kühe zieht</t>
+          <t>das Huhn welches von dem Frosch einen Apfel zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>die katze die ne blume kriegt</t>
+          <t>die zwei Hunde die vom Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>die fröschen die die ente fangen</t>
+          <t>die zwei Pferde welche von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>die pferde die geschubst werden</t>
+          <t>die Katze die von der Ente eine Blume bekommt</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>der tisch unter dem der frosch sitzt</t>
+          <t>der Hase der einen Keks isst</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>die ziegen die ne katze schubsen</t>
+          <t>Der Hund dem der Ball zugeworfen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>der löwe die die katzen ziehen</t>
+          <t>Der Hund der die Schafe wäscht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>der frosch der gewaschen wird</t>
+          <t>der Hase der hinfällt</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>der haus worauf der schaf springt</t>
+          <t>der Ball der rollt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>der hund der ein ball fängt</t>
+          <t>Der Löwe der gezogen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>der hund der die schafe wäscht</t>
+          <t>Das Huhn dem der Pfirsich gegeben wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>der huhn die ein pfirsich nimmt</t>
+          <t>Die zwei Hunde die gefangen werden haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom  Person=3|Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>die hunde die gefangen werden</t>
+          <t>Der Baum unter dem eine Ziege sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>der löwe die die kühe ziehen</t>
+          <t>Die zwei Frösche die die Ente fangen haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>der huhn der einen apfel von ein frosch fängt</t>
+          <t>Die Pferde die geschubst werden haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom Case=Nom PronType=Rel|Number=Plur|Case=Nom  Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>der bett worauf die katze springt</t>
+          <t>Der Löwe der die zwei Kühe zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>der baum worunter ne ziege sitzt</t>
+          <t>Die Katze die eine Blume von der Ente bekommt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>der einen keks ist</t>
+          <t>Das Haus auf dem das Schaf springt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>der hinfällt</t>
+          <t>Der Tisch unter dem ein Frosch sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>der ball der rollt</t>
+          <t>Das Bett auf dem eine Katze springt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>das pferd das das seil hält</t>
+          <t>Das Huhn dem ein Apfel zugeworfen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>der frosch der vorne läuft</t>
+          <t>Der Frosch der gewaschen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>der löwe der hinten ist</t>
+          <t>Die zwei Ziegen die die Katze schubsen haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>die frösche die hinten sind und die ente fangen wollen die sind blau</t>
+          <t>Der Hase der einen Keks isst hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  Person=3|Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Plur|Tense=Pres|PronType=Ind PronType=Dem|Number=Plur|Case=Nom/Acc Person=3|Number=Plur|Tense=Pres|PronType=Ind </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>der baum der in der mitte ist wo eine ziege drunter sitzt</t>
+          <t>Die zwei Hunde die von dem Schaf gefangen werden haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>der hund der die zwei schafe wäscht</t>
+          <t>Die Katze der von der Ente eine Blume gegeben bekommt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Dat  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>der einen keks isst</t>
+          <t>Der Ball der rollt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>der hase der hinfällt</t>
+          <t>Der Baum unter dem eine Ziege sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Fem|Number=Sing|Case=Nom Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>der ball der rollt</t>
+          <t>Das Pferd das die zwei Kühe zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>das pferd was die kühe zieht</t>
+          <t>Das Bett auf dem eine Katze springt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>der hund der den ball bekommt</t>
+          <t>Der Löwe der von den zwei Katzen gezogen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Number=Plur|Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>die katze die die blume bekommt</t>
+          <t>Das Haus auf dem ein Schaf springt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>die ziege die die katze schubst</t>
+          <t>Der Hund der die zwei Schafe wäscht hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>das bett wo die katze drauf hüpft</t>
+          <t>Die zwei Ziegen die die Katze schubsen haben jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>wo der frosch unter dem tisch sitzt</t>
+          <t>Das Huhn das von dem Frosch einen Apfel zugeworfen bekommt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>wo das huhn den apfel bekommt</t>
+          <t>Die zwei Frösche die die Ente schieben</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>der frosch der von den enten gewaschen wird</t>
+          <t>Die zwei Pferde die von der Kuh geschubst werden haben jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>der löwe die die kühe zieht</t>
+          <t>Der Frosch der von den zwei Enten gewaschen wird hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>die pferde die von der kuh geschubst werden</t>
+          <t>Der Löwe der die zwei Kühe zieht hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>das haus wo das schaf drauf hüpft</t>
+          <t>Das Huhn das von der Maus einen Pfirsich gegeben bekommt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>der löwe der von den katzen gezogen wird</t>
+          <t>Der Hund der von dem Huhn einen Ball zugeworfen bekommt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>die frösche die die ente fangen</t>
+          <t>Der Tisch unter dem ein Frosch sitzt hat jetzt eine andere</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>der hund der die schafe wäscht</t>
+          <t>der Hase mit dem Keks</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>das huhn den den pfirsich bekommt</t>
+          <t>die linke Katze</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>der baum wo die ziege drunter sitzt</t>
+          <t>der rechte Löwe der von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>der den keks isst</t>
+          <t>der erste Affe der hingefallen ist</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>der hingefallen ist</t>
+          <t>der zweite Ball der rollt</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>pferd das die kühe zieht</t>
+          <t>der Tisch unter dem der Frosch sitzt</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Number=Sing PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>der die ente wascht</t>
+          <t>das erste Pferd was die zwei Kühe zieht und das zweite Pferd</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>der der ente die blume gibt</t>
+          <t>der Frosch der von den zwei Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>die ziege die nicht springt</t>
+          <t>die Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>das haus das in der mitte steht</t>
+          <t>die zwei Frösche die die Ente fangen oder schubsen</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>der löwe die die kühe ziehen</t>
+          <t>die beiden Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>der hund der die schafe wascht</t>
+          <t>der Hund dem das Huhn einen Ball zuwirft</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>die frösche die die ente fangen</t>
+          <t>das Bett auf dem die Katze springt</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>der die katzen ziehen den löwen</t>
+          <t>das Huhn das von der Maus einen Pfirsich bekommt</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>der frosch der an dem haus sitzt 2 der frosch wo der frosch wach ist</t>
+          <t>der Baum unter dem die Ziege sitzt</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>den huhn der den maus den huhn den pfirsich gibt</t>
+          <t>das Huhn das vom Frosch einen Apfel zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>der den frosch der den dem huhn gibt</t>
+          <t>das Haus auf dem das Schaf hüpft springt</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Dem|Gender=Masc|Number=Sing|Case=Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>wo die katze drauf hüpft</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>der huhn der den huhn zu dem hund wirft</t>
+          <t>der Hund der die zwei Schafe wäscht</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>das das schaf fangt 2 das schaf die hunde fängt</t>
+          <t>die zwei Hunde die gerade von dem Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom   PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>die ziegen die die katze schubsen</t>
+          <t>der Hase der den Keks isst</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Der der 'en Keks isst</t>
+          <t>das Haus auf dem ein Schaf springt</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|PronType=Ind|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Der Hase der hinfällt</t>
+          <t>die Katze die von der Ente eine Blume bekommt</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Der Ball der weiter unten ist</t>
+          <t>der Hase der hinfällt</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Das Pferd das die Kühe zieht</t>
+          <t>der Ball der rollt</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Der Hund der der die ein Ball geworfen bekommt</t>
+          <t>das Bett auf dem eine Katze springt</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>die zwei frösche die die ente fangen</t>
+          <t>das Pferd das die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>der löwe der die kühe zieht</t>
+          <t>der Hund dem das Huhn einen Ball zuwirft</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>der baum unter dem die ziege sitzt</t>
+          <t>die zwei Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Gender=Masc|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Nom Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>die zwei hunde die vom schaf gefangen werden</t>
+          <t>die zwei Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>der tisch wo drunter der frosch sitzt</t>
+          <t>der Löwe der von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom   PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>das haus wo das schaf drauf springt</t>
+          <t>der Frosch der von den zwei Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>die katze die von dem huhn blumen bekommt</t>
+          <t>der Tisch unter dem ein Frosch sitzt</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|PronType=Ind|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>die ziegen die die katze schubsen</t>
+          <t>der Hund der die zwei Schafe wäscht</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>der frosch der gewaschen wird</t>
+          <t>die zwei Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>das huhn das ein pfirsich bekommt</t>
+          <t>das Huhn das den Pfirsich von der Maus bekommt</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>der hund der die schafe wäscht</t>
+          <t>die zwei Hunde die von dem Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>der löwe der von den katzen gezogen wird</t>
+          <t>das Huhn dem der Frosch den Apfel zuwirft</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>das bett von der katze die auf dem bett springt</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>die pferde die geschubst werden</t>
+          <t>der Baum unter dem eine Ziege sitzt</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|PronType=Ind|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Der hat blau. 2 Der hat keine Farbe. 3 gar keiner 4 Der Keks hat eine andere Farbe</t>
+          <t>Der Hase der den Keks isst ist jetzt blau</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind  Person=2 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Person=3  Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>der 2 ein Hase 3 Der fällt hin. 4 Der Hase fällt hin. 5 fällt hin 6 Der fällt hin</t>
+          <t>Der Baum unter dem die Ziege sitzt ist jetzt blau</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=2 PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind   PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind   Number=Sing|PronType=Ind   PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind </t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>der Ball 2 Der rollt. 2 das in der Mitte 3 der Ball 4 der rollt</t>
+          <t>Der Hund der von dem Huhn einen Ball zugeworfen bekommt ist jetzt blau</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=2 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3 PronType=Dem|Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>das Pferd</t>
+          <t>Der Hase der hinfällt ist jetzt blau</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>der Löwe 2 der 3 dass der keine Farbe hat 4 der zieht die 5 die katzen ziehen den 6 der Löwe der gezogen wird</t>
+          <t>Der Ball der rollt ist jetzt blau</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=2 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=3  PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind PronType=Dem|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Dem|Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>der Hund die die Schafe putzt</t>
+          <t>Die zwei Ziegen die die Katze schubsen haben jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>der Tisch</t>
+          <t>Das Pferd das die zwei Kühe zieht ist jetzt blau</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>der Baum</t>
+          <t>Die Katze die von der Ente eine Blume gegeben bekommt ist jetzt blau</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>also der mit dem Keks</t>
+          <t>Der Frosch der von den zwei Enten gewaschen wird hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>der der fällt</t>
+          <t>Das Huhn das von der Maus einen Pfirsich bekommt ist jetzt blau</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>der Ball der rollt</t>
+          <t>Das Haus auf dem das Schaf springt ist jetzt blau</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>das Pferd das die Kühe zieht</t>
+          <t>Das Bett auf dem die Katze springt ist jetzt blau</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>der der von den Schafen gewaschen wird</t>
+          <t>Der Tisch unter dem der Frosch sitzt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Number=Plur|Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>die die die Ente fangen</t>
+          <t>Der Löwe der von den zwei Katzen gezogen wird hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>PronType=Dem|Number=Plur|Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>der der die Kühe zieht</t>
+          <t>Der Hund der die zwei Schafe wäscht ist jetzt blau</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>der der von den Katzen gezogen wird</t>
+          <t>Die zwei Hunde die von dem Schaf gefangen werden haben jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>der der von den Enten gewaschen wird</t>
+          <t>Das Huhn das von dem Frosch einen Apfel zugeworfen bekommt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>der Baum in der Mitte 2 der bei der Ziege die sitzt 3 der Baum der bei der Ziege sitzt</t>
+          <t>Die zwei Frösche die die Ente fangen haben jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Person=2 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>der der die Maus bekommt und die Maus gibt dem Huhn einen Apfel</t>
+          <t>Der Löwe der die zwei Kühe zieht hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>die die die Katze schubst</t>
+          <t>Die zwei Pferde die von der Kuh geschubst werden haben jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Fem|Case=Nom/Acc PronType=Rel|Gender=Fem|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>also das Bett wo die Katze hüpft</t>
+          <t>Der Hase der den Keks ist hat eine andere Farbe. Er ist blau</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Person=3|Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Gender=Masc|Person=3|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>der Tisch wo der Frosch sitzt</t>
+          <t>Die zwei Frösche die die Ente fangen haben jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>die Katze die eine Blume bekommt</t>
+          <t>Der Hund der den Ball von dem Huhn zugeworfen bekommt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>das Haus wo der Schaf hüpft</t>
+          <t>Der Ball der rollt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>die Hunde die von dem Schaf gefangen werden</t>
+          <t>Die zwei Ziegen die die Katze schubsen haben jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>der Hund bei dem Huhn das dem Hund einen Ball zuwerft</t>
+          <t>Das Pferd das die Kühe zieht hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>das Huhn bei dem Frosch der den Huhn einen Apfel zuwerft</t>
+          <t>Der Hund der die beiden Schafe wäscht hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>die Pferde wo die Kuh die Pferde schubst</t>
+          <t>Die Katze die von der Ente eine Blume erhält hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>der Hase der hingefallen ist</t>
+          <t>Das Huhn welches einen Pfirsich von der Maus erhält hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>der Ball der rollt</t>
+          <t>Die Katze die auf dem Bett springt ist jetzt blau</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>das Pferd das die Kühe zieht</t>
+          <t>Der Löwe welcher die beiden Kühe zieht hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>die Frösche die die Enten fangen</t>
+          <t>Der Frosch welcher von den beiden Enten gewaschen wird hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>die Pferde die die Kuh schubst</t>
+          <t>Der Löwe welcher von den beiden Katzen gezogen wird hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>der Hund der das Huhn den Ball hingeworfen hat</t>
+          <t>Das Huhn welches einen Apfel von dem Frosch zugeworfen bekommt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>wo die Katze draufspringt das Bett</t>
+          <t>Das Haus auf welchem das Schaf springt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>wo die Ziege sitzt der Baum</t>
+          <t>Die zwei Pferde welche von der Kuh geschubst werden haben jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Person=3|Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>der Tisch wo der Frosch drunter sitzt</t>
+          <t>Der Baum unter dem die Ziege sitzt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>der Frosch wo die Enten den waschen</t>
+          <t>Die zwei Hunde die vom Schaf gefangen werden haben jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Dem|Gender=Masc|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Person=3|Number=Plur|Tense=Pres|PronType=Ind Person=3|Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>wo die Maus den Huhn den Pfirsich gegeben hat das Huhn in einer Farbe</t>
+          <t>Der Tisch unter welchem der Frosch sitzt hat jetzt eine andere Farbe</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut  PronType=Art|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>wo die Ente die Katze die Blume gegeben hat</t>
+          <t>die zwei Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>wo der Frosch den Huhn den Apfel hingeschmissen hat 2 das Huhn 3 wo der Frosch den Huhn den Apfel hinschmeißt</t>
+          <t>der Löwe der von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Person=3  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>der Löwe die die Kühe zieht</t>
+          <t>der Hase der gerade einen Keks isst</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>wo das Schaf die Hunde fängt 2 die zwei Hunde</t>
+          <t>Das Huhn dem der Frosch einen Apfel zuwirft hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>wo der Hund die Schafe wäscht 2 der die Schafe wäscht</t>
+          <t>Der Hund dem das Huhn einen Ball zuwirft hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>der Löwe den die Katzen ziehen</t>
+          <t>Der Hase der gerade hingefallen ist hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>die zwei Ziegen die die Katze schubst</t>
+          <t>Der Ball der gerade rollt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>das Haus wo das Schaf drauf hüpft</t>
+          <t>Der Löwe der die beiden Kühe zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>der Hase der den Keks isst</t>
+          <t>Das Pferd das die beiden Kühe zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>der Hase der hinfällt</t>
+          <t>Der Tisch unter dem ein Frosch sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>der Ball der rollt</t>
+          <t>Die Ziegen die die Katze schubsen haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>das Pferd die die Kühe zieht</t>
+          <t>Das Huhn dem die Maus einen Pfirsich gibt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>der Löwe der von den Katzen gezogen wird</t>
+          <t>Der Löwe der von den beiden Katzen gezogen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>das Huhn den den Pfirsich annehmt</t>
+          <t>Der Frosch der von den beiden Enten gewaschen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>der Hund die zwei Schafe waschen</t>
+          <t>Der Hund der die beiden Schafe wäscht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>der Löwe die die Kühen zieht</t>
+          <t>Die beiden Pferde die von der Kuh geschubst werden haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom Number=Plur|Case=Nom Case=Nom PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>der Frosch der von den Enten gewaschen wird</t>
+          <t>Das Haus auf dem ein Schaf hüpft hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>der Hund der das Huhn dem Hund den Ball zuwirft</t>
+          <t>Die beiden Frösche die die Ente fangen haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>die zwei Schafe die die Katze schubsen</t>
+          <t>Der Baum unter dem eine Ziege sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>der Frosch der unter dem Tisch ist aber nicht schläft 2 der Tisch wo der Frosch drunter ist aber nicht schläft</t>
+          <t>Das Bett auf dem eine Katze springt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Person=3|Number=Sing|Tense=Pres|PronType=Ind   Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind   Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>die zwei Frösche die die Ente schubsen</t>
+          <t>Die Katze die von der Ente eine Blume bekommt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>das Bett wo die Katze springt</t>
+          <t>Die beiden Hunde die vom Schaf gefangen werden haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>das Haus wo das Schaf drauf springt</t>
+          <t>der Hase der den Keks isst</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>die Pferde die von der Kuh geschubst werden</t>
+          <t>der Frosch der von den zwei Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>die Hunde die vom Schaf geschubst werden</t>
+          <t>der Hund der die zwei Schafe wäscht</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc Case=Dat Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>das Huhn wo der Frosch ein Apfel dem Huhn zuwirft</t>
+          <t>der hinfallende Hase</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>der Baum wo die Ziege runter sitzt</t>
+          <t>der rollende Ball</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>die Katze wo die Ente ihr eine Blüme gibt</t>
+          <t>der Baum unter dem die Ziege sitzt</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Person=3|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>der Hase der einen Keks isst</t>
+          <t>das Kind das die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>der Hase der hinfällt</t>
+          <t>das Haus auf dem das Schaf springt</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>der Ball der rollt</t>
+          <t>die zwei Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>das Pferd die die alle zwei zieht</t>
+          <t>die zwei Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=All|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>das Schaf die die Hunde fängt die zwei 2 die Hunde</t>
+          <t>der Löwe der von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Person=2 PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>der Löwen die die Kühe und den anderen Löwen zieht der der ganz vorne ist</t>
+          <t>das Huhn das von dem Frosch einen Apfel zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>die vorderen Pferde die von der Kuh geschubst werden</t>
+          <t>der Tisch unter dem der Frosch sitzt</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc   PronType=Rel|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>der mittlere Baum wo die Ziege sitzt</t>
+          <t>der Hund dem ein Ball zugeworfen wird</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>das Huhn wo die Maus dem Huhn den Pfirsich gegeben hat</t>
+          <t>das Bett auf dem eine Katze springt</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>der Hund dem das Huhn den Ball zuwirft</t>
+          <t>die zwei Hunde die vom Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>der Hund die die zwei Schafe wäscht</t>
+          <t>die Katze die eine Blume von der Ente bekommt</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>das Huhn der von dem Frosch den Apfel kriegt</t>
+          <t>das Huhn das einen Pfirsich von der Maus bekommt</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>der Tisch der über dem Frosch sitzt der sitzt</t>
+          <t>die zwei Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>das Bett wo die Katze drauf springt</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>die Katze die von der Ente die Blume kriegt</t>
+          <t>der Hase der einen Keks isst</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>das Haus wo das Schaf drauf springt</t>
+          <t>die zwei Hunde die vom Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>der Frosch der von den enten gewaschen wird</t>
+          <t>der Baum unter dem eine Ziege sitzt</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>der Löwe der von den Katzen gezogen wird</t>
+          <t>der Hase der hinfällt</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>die Ziegen die die Katze schubsen</t>
+          <t>der Ball der rollt</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>der Keksessende 2 der Hase mit dem Keks</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom  Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>der hase ganz vorne 2 der vordere 3 der hase 4 dass der hase blau wäre 5 der hase 6 der hase der hinfällt</t>
+          <t>das Pferd das die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom   Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom  Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom   PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>der Ball 2 rollt 3 der Ball der rollt</t>
+          <t>das Huhn das von der Maus einen Pfirsich bekommt</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=2 Number=Sing|Tense=Pres|PronType=Ind Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>das Pferd mit dem Zopf 2 das Pferd das die Kühe zieht</t>
+          <t>die zwei Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Person=2 PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>da sitzen 2 Ziege 3 Baum 4 da wo die Ziege sitzt</t>
+          <t>das Bett auf dem die Katze springt</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Number=Plur|Tense=Pres|PronType=Ind Person=2 Number=Sing Person=3 Number=Sing    PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>die Frösche die die Ente fangen</t>
+          <t>die zwei Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>die Hunde die das Schaf gefangen genommen hat</t>
+          <t>der Tisch unter dem ein Frosch sitzt</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc   Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>der Hund wo das Huhn den Ball zum Hund wirft</t>
+          <t>der Frosch der von den zwei Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Case=Dat Number=Sing|Case=Dat Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>der Hund der die Schafe wäscht</t>
+          <t>die Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>das Huhn dem der Apfel zugeworfen wird</t>
+          <t>das Haus auf dem das Schaf springt</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>das Huhn das neben der Maus steht und die Maus gibt dem Huhn die Pflaume</t>
+          <t>der Löwe der von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>die Pferde die das Schaf schubst ja die und ich vermute die Pferde die vom Stier oder Schaf geschubst werden</t>
+          <t>der Hund der von dem Huhn einen Ball zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind  PronType=Dem|Number=Plur|Case=Nom/Acc  Person=1|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc Case=Dat Number=Sing|Case=Dat  Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>der Frosch der da sitzt unter dem Tisch 2 der Tisch 3 der wo der Frosch drunter sitzt</t>
+          <t>das Huhn das von dem Frosch einen Apfel zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>die Ziegen die die Katze schubsen</t>
+          <t>der Hund der die zwei Schafe wäscht</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Neut|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>die Katze die vor der Ente steht und die Ente gibt der Katze die Blume 2 die Katze</t>
+          <t>die Katze die von der Ente eine Blume bekommt</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Person=2 PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>der Frosch der von den Enten gewaschen wird</t>
+          <t>Jetzt hat der keksessende Hase eine andere Farbe</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve"> Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>der Löwe der von den Katzen gezogen wird</t>
+          <t>die zwei Hunde die vom Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>das Haus auf dem das Schaf springt</t>
+          <t>der Löwe der die Kühe zieht</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>der blaue 2 der weiß ist 3 blau 4 einen keks isst 5 blau ist</t>
+          <t>der Hase der hingefallen ist</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom  Person=2 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3   PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind   Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>der weiße 2 blau 3 der weiße Hase 4 Kann ich nicht jetzt nochmal beschreiben eigentlich. 5 blau ist</t>
+          <t>der rollende Ball</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom  Person=2  Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom  Gender=Masc|Number=Sing|Case=Nom  Person=1|Number=Sing|Tense=Pres|PronType=Ind Person=1|Number=Sing|Case=Nom        Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>der Ball der rollt</t>
+          <t>der Hund der die Schafe wäscht</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>das Pferd das die Kühe zieht</t>
+          <t>das allererste Zugpferd das die Kühe zieht</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>der Löwe der von den zwei Katzen gezogen wird</t>
+          <t>das Huhn das von der Maus einen Pfirsich bekommt</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>das Huhn das den Pfirsich gekriegt hat</t>
+          <t>der Löwe der von den Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>der Hund wo der Ball zugeworfen wird</t>
+          <t>der Baum unter dem die Ziege sitzt</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>das Huhn das ein Apfel gekriegt hat</t>
+          <t>die Katze die von der Ente eine Blume überreicht bekommt</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>der Baum in der Mitte 2 der Baum 3 der</t>
+          <t>das Huhn dem ein Apfel zugeworfen wird</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|PronType=Ind|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>das Bett da 2 dass da eine Katze drauf hüpft</t>
+          <t>das Haus auf dem ein Schaf springt</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Person=2   PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|PronType=Ind|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>der Frosch 2 dass der von hinten geputzt wird 3 der Frosch der hinten geputzt wird</t>
+          <t>der Frosch den die Enten waschen</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=2  PronType=Dem|Gender=Masc|Number=Sing|Case=Nom    Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom Case=Nom Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>die Pferde 2 die blauen Pferde 3 die Pferde</t>
+          <t>der Hund dem ein Ball zugeworfen wird</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Person=2 PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Person=3 PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|PronType=Ind|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>der Tisch da 2 der außen ist 3 der Tisch wo der Frosch drunter sitzt</t>
+          <t>die zwei Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=2 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>der Löwe der die Kühe zieht</t>
+          <t>die Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>das Haus wo das Schaf drauf hüpft</t>
+          <t>die zwei Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>die Katze die eine Blume kriegt</t>
+          <t>der Tisch unter dem der Frosch sitzt</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>die Ziegen die die Katze schubsen</t>
+          <t>das Bett der springenden Katze</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Gen Number=Sing|Case=Gen Gender=Fem|Number=Sing|Case=Gen</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>die Frösche die die Ente fangen</t>
+          <t>der Hase der den Keks isst</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>der Hund der die Schafe putzt</t>
+          <t>die zwei Hunde die von dem Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>die Hunde die vom Schaf gefangen wurden</t>
+          <t>die Katze die von einer Ente eine Blume bekommt</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc Case=Dat Number=Sing|Case=Dat  Number=Plur|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>der mit dem Keks</t>
+          <t>der Hase der hinfällt</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>der Hund 2 der Hund der den Ball fängt</t>
+          <t>der Ball der rollt</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>das Huhn das den Pfirsich hat</t>
+          <t>das Pferd das die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>der Hase der hingefallen ist</t>
+          <t>das Haus auf dem ein Schaf springt</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>der rollende Ball</t>
+          <t>das Huhn dem ein Frosch einen Apfel zuwirft</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom  Gender=Masc|Number=Sing|Case=Nom</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>der Tisch wodrunter der Frosch sitzt 2 der Tisch wodrunter der Frosch sitzt</t>
+          <t>der Löwe der von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>das Pferd das die Kühe zieht</t>
+          <t>die zwei Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>das Huhn das den Apfel fängt</t>
+          <t>die zwei Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Number=Plur|Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>der der die Kühe zieht</t>
+          <t>der Hund der die zwei Schafe wäscht</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>der Hund der die Schafe wäscht</t>
+          <t>der Frosch der von den zwei Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>das Haus wodrauf das Schaf springt</t>
+          <t>das Huhn das von der Maus einen Pfirsich bekommt</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>das Bett wodrauf die Katze springt</t>
+          <t>die zwei Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>die beiden Frösche die die Ente fangen</t>
+          <t>das Bett auf dem eine Katze springt</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>der Löwe der die Katzen zieht 2 der Löwe der von den Katzen gezogen wird</t>
+          <t>der Hund dem das Huhn einen Ball zuwirft</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>der Baum wodrunter die Ziege sitzt</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>die Katze die die Blume kriegt</t>
+          <t>der Tisch über dem sitzenden Frosch</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>die Pferde die von der Kuh geschubst werden</t>
+          <t>der Hase der den Keks isst</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>die Hunde die von dem Schaf gefangen werden</t>
+          <t>das Haus auf dem ein Schaf springt</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>die Ziegen die die Katze schubsen</t>
+          <t>die zwei Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>der Frosch der von den Enten gewaschen wird</t>
+          <t>der Hase der hinfällt</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>der Hase der einen Keks in der Hand hat</t>
+          <t>der Ball der rollt</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>der eine Hase der vorne ist und der hinstürzt</t>
+          <t>der Frosch der von den zwei Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom  Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Das Haus in der Mitte wo das Schaf springt. 2 Das Haus was in der Mitte ist und das Schaf springt</t>
+          <t>das Pferd das die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc   PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>die hinten sind und die Katze schubsen 2 die zwei Ziegen die hinten sind und die Katze schubsen</t>
+          <t>der Baum unter dem eine Ziege sitzt</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>PronType=Dem|Number=Plur|Case=Nom/Acc  Person=3|Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  Person=3|Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>der Ball der rollt und der rund richtig ist</t>
+          <t>der Hund dem das Huhn einen Ball zuwirft</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind  PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>das Pferd das die Kühe ziehen</t>
+          <t>die zwei Hunde die von dem Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>der Baum der in der Mitte ist wo die Ziege sitzt</t>
+          <t>die zwei Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>die Katze wo die eine Ente die Blume jetzt gibt und die andere dann gleich die andere Blume gibt</t>
+          <t>der Hund der die zwei Schafe wäscht</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc    PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>der Löwe der die Kühe zieht</t>
+          <t>die zwei Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>die beiden Frösche die die Ente schubsen</t>
+          <t>der Tisch unter dem ein Frosch sitzt</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>der Löwe den die beiden Katzen ziehen</t>
+          <t>das Bett auf dem eine Katze springt</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>die beiden Hunde die das Schaf schubst</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Number=Plur|Case=Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Die Kuh schubst jetzt die beiden Pferde die vorne sind. 2 die beiden Pferde die die Kuh schubst</t>
+          <t>der Löwe der von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  Person=3|Number=Plur|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>der Hund der die beiden Schafe wäscht</t>
+          <t>das Huhn das von der Maus den Pfirsich bekommt</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>das Bett wo die Katze drauf springt</t>
+          <t>die Katze die von der Ente eine Blume bekommt</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>der Hund wo das Huhn dem Hund den Ball zuwirft</t>
+          <t>das Huhn dem der Frosch einen Apfel zuwirft</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Die Maus gibt dem Huhn einen Apfel und das Huhn hat eine andere Farbe</t>
+          <t>Der Hase der einen Keks isst hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Der Frosch der wirft dem Huhn einen Apfel zu und das ist das Huhn was die andere Farbe hat</t>
+          <t>Das Huhn dem die Maus einen Pfirsich gibt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc   PronType=Dem|Gender=Neut|Number=Sing|Case=Nom/Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>der Tisch wo der Frosch drunter sitzt der nicht schläft</t>
+          <t>Auf dem Haus springt ein Schaf</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>der blaue 2 der mit dem Keks 3 der mit dem Keks</t>
+          <t>Der Hase fällt hin. Der hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom  Person=2 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Person=3 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind  PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>der Frosch also 2 wo die zwei Enten den Frosch saubermachen</t>
+          <t>Der Ball rollt</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=2  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>der Hase der hinfällt</t>
+          <t>die Hunde die das Schaf fängt</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>die Hunde wo das Schaf die Hunde fängt</t>
+          <t>Das Pferd das die zwei Kühe und ein anderes Pferd zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc  PronType=Art|Gender=Neut|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>wo der Frosch sitzt 2 wo der Frosch drunter sitzt</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=2  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>der Ball der rollt</t>
+          <t>Die zwei Frösche die die Ente fangen hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>das Pferd die die Kühe zieht</t>
+          <t>der Löwe den die zwei Katzen ziehen</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>die Frösche die die Ente fängt</t>
+          <t>das Bett über dem eine Katze springt</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>der Löwe der die zwei Kühe zieht</t>
+          <t>Das Huhn dem der Frosch einen Apfel zuwirft hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>die zwei Pferde wo die Kuh die schubst</t>
+          <t>Die Ente gibt der Katze eine Blume</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Dem|Number=Plur|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>der Hund die die Schafe wäscht</t>
+          <t>Unter dem Tisch sitzt ein Frosch</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve"> PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>das Huhn wo die Maus dem was gibt</t>
+          <t>Der Frosch den die zwei Enten waschen hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing PronType=Dem|Gender=Neut|Number=Sing|Case=Dat  Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom Number=Plur|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>der Kater wo die Ente dem Kater das gibt</t>
+          <t>der Hund der die zwei Schafe wäscht</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Dem|Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>der Baum wo die Ziege sitzt</t>
+          <t>Der Hund dem das Huhn den Ball zuwirft hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>das Huhn wo der Frosch den Apfel zuwerft</t>
+          <t>Der Baum unter dem die Ziege sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>das Bett wo die Katze springt</t>
+          <t>Die zwei Ziegen die die Katze schubsen haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>die Tür wo das Schaf drauf springt</t>
+          <t>Die Pferde die die Kuh schubst haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom Case=Nom PronType=Rel|Number=Plur|Case=Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>der Löwe wo die zwei Katzen den ziehen</t>
+          <t>der Hase der den Keks isst</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Dem|Gender=Masc|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>der Hund wo das Huhn einen Ball zuwirft</t>
+          <t>der Löwe der von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>die zwei Ziegen die die Katze schubsen</t>
+          <t>die zwei Hunde die vom Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Number=Plur|Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Person=3|Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>der der einen Keks isst</t>
+          <t>der Hase der hinfällt</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>der Baum wo die Ziege sitzt</t>
+          <t>der Ball der rollt</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>der der hinfällt</t>
+          <t>das Huhn dem der Frosch einen Apfel zuwirft</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>der Frosch der gewaschen wird</t>
+          <t>das Pferd das die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>der Hund wo das Huhn den Hund den Ball zuwirft</t>
+          <t>die zwei Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>der Ball der rollt</t>
+          <t>der Hund dem der Ball zugeworfen wird</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>das Pferd das den zwei Kühe zieht</t>
+          <t>das Haus auf dem ein Schaf springt</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Dat   Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>der Löwe die die zwei Kühe zieht</t>
+          <t>das Bett auf dem die Katze springt</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>der Tisch wo der Frosch da drunter sitzt</t>
+          <t>das Huhn das einen Pfirsich von der Maus bekommt</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom   Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>die Ziegen die die Katze schubsen</t>
+          <t>die zwei Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>die Pferde die von der Kuh geschubst werden</t>
+          <t>der Baum unter dem eine Ziege sitzt</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
@@ -5577,1615 +5577,1243 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>das Haus wo das Schaf drauf hüpft</t>
+          <t>der Tisch unter dem ein Frosch sitzt</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>das Bett wo die Katze drauf springt</t>
+          <t>die zwei Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>die Hunde die vom Schaf gefangen werden</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc Case=Dat Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Huhn wo die Maus ihr den Pfirsich gibt</t>
+          <t>der Frosch der von den zwei Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Number=Sing  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Person=3|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>die zwei Frösche die die Ente fangen</t>
+          <t>die Katze die von der Ente eine Blume bekommt</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>das Huhn wo der Frosch den Apfel zu dem Huhn wirft</t>
+          <t>Der Frosch der unter dem Tisch sitzt ist blau</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Number=Sing|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>wo die zwei Katzen den Löwen ziehen</t>
+          <t>Der linke Hund ist blau</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>der 2 der Hase der einen Keks isst</t>
+          <t>Der linke Hase der springt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>der Baum unter dem die Ziege sitzt</t>
+          <t>Der rechte Ball der rollt ist blau geworden</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>der Hase der hinfällt</t>
+          <t>Die Frösche links die die Ente</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Plur|Case=Nom/Acc Number=Plur|Case=Nom/Acc  PronType=Rel|Gender=Masc|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>das Huhn wo der Frosch dem Huhn einen Apfel zuwirft</t>
+          <t>Das Pferd rechts ist blau</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>das Bett worauf die Katze springt</t>
+          <t>Das Bett der springenden Katze ist blau</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Gen Number=Sing|Case=Gen Gender=Fem|Number=Sing|Case=Gen Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>der rollt</t>
+          <t>Die Katze die eine Blume von der Ente bekommt ist blau</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>was die zwei Kühe zieht</t>
+          <t>Der Frosch der von zwei Enten gewaschen wird ist blau</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>das Huhn wo die Maus ihm den Pfirsich gibt</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Neut|Person=3|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>der Frosch wo die zwei Enten den Frosch waschen</t>
+          <t>der Hund der den Ball vom Huhn zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>der Hund die die zwei Schafe wäscht</t>
+          <t>die zwei Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Plur|Case=Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>die zwei Ziegen die die Katze schubsen</t>
+          <t>der Baum unter dem die Ziege sitzt</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>der Löwe den die zwei Katzen ziehen</t>
+          <t>das Huhn das den Pfirsich von der Maus bekommt</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>die zwei Hunde die das Schaf fängt</t>
+          <t>der Hund der die zwei Schafe wäscht</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>die zwei Pferde die die Kuh schubst</t>
+          <t>das Huhn das den Apfel vom Frosch zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>der Löwe die die zwei kühe zieht</t>
+          <t>die Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Plur|Case=Nom/Acc Number=Plur|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>das Haus wo das Schaf drauf springt</t>
+          <t>der Löwe der von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>der Hund wo das Huhn ihm den Ball zuwirft</t>
+          <t>das Haus auf dem das Schaf springt</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Masc|Person=3|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>die Frösche die die Ente fangen</t>
+          <t>Der Hase der einen Keks isst hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>die Katze wo die Ente ihr die Blume gibt</t>
+          <t>Die zwei Ziegen die die Katze schubsen haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc  Gender=Fem|Person=3|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>der Tisch unter dem der Frosch sitzt</t>
+          <t>die zwei Pferde die von der Kuh geschubst werden</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>der hier der mit die Keks 2 Der mit dem Keks hat die andere Farbe Blau</t>
+          <t>Der Hase der hinfällt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing Person=2 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Das Huhn das auch in der Feder einen Pfirsich trägt das hat jetzt die Farbe Blau</t>
+          <t>Der Ball der rollt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc   PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind PronType=Dem|Gender=Neut|Number=Sing|Case=Nom/Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>der Hase der ganz vorne hinfällt hat die Farbe blau</t>
+          <t>der Hund dem das Huhn einen Ball zuwirft</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Die Ziegen die ganz hinten sind die beiden haben jetzt die Farbe Blau. 2 zwei Ziegen 3 die Ziegen die die Katze schubsen</t>
+          <t>Das Pferd das die zwei Kühe zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc   Person=3|Number=Plur|Tense=Pres|PronType=Ind PronType=Dem|Number=Plur|Case=Nom/Acc  Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Person=2  Case=Nom/Acc Person=3 PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Der Tisch der über dem Frosch der sitzt der traurig da sitzt da drunter der hat jetzt die Farbe Blau</t>
+          <t>der Hund der die zwei Schafe wäscht</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   Number=Sing|Tense=Pres|PronType=Ind   PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Der Ball der ganz vorne rollt hat die Farbe Blau</t>
+          <t>der Löwe der von den zwei Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>das Pferd das ganz vorne zieht hat jetzt die Farbe Blau. 2 ein Pferd 3 das Pferd hier 4 das Pferd hält die Vorderhufe hoch und die Hinterhufe stellt er sich auf</t>
+          <t>der Baum unter dem eine Ziege sitzt</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc   Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Person=2 PronType=Art|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Person=3 PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc   PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc   PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind Gender=Masc|Person=3|Number=Sing|Case=Nom  </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Die zwei Frösche die die Ente gefangen haben die haben jetzt die Farbe Blau</t>
+          <t>das Bett auf dem eine Katze springt</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Plur|Tense=Pres|PronType=Ind PronType=Dem|Number=Plur|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc </t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Der Löwe der ganz hinten ist und die Katzen ziehen den Löwen der jetzt blau ist. 2 ein Löwe 3 der der von den Katzen geziehen wird</t>
+          <t>der Tisch unter dem ein Frosch sitzt</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing|Case=Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Die Hunde die ganz vorne sind. 2 Die Hunde die die Ziege gefangen hat</t>
+          <t>der Frosch der von den zwei Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc   Person=3|Number=Plur|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>der Hund der die Ziegen wäscht</t>
+          <t>das Haus auf dem ein Schaf springt</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Das Bett hat die Farbe wo die Katze drauf springt</t>
+          <t>das Huhn das von der Maus einen Pfirsich gegeben bekommt</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>der Frosch der von den Enten gewaschen wird</t>
+          <t>die zwei Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Das Huhn werft genauerweise den Ball zu und der Hund ist jetzt blau der gegenüber dem Huhn steht. 2 der Hund dieser Hund hier</t>
+          <t>die zwei Hunde die von dem Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc   PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind   PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom </t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>die Ente die die Katze eine Blume schenkt</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>das Huhn das vor dem Frosch steht. 2 das Huhn 3 der Frosch der dem blauen Huhn einen Apfel zuwirft</t>
+          <t>das Huhn das vom Frosch einen Apfel zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Case=Dat Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>der Löwe der die Kühe zieht</t>
+          <t>die Katze die von der Ente eine Blume bekommt</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>der Baum der in der Mitte steht und dadrunter sitzt die Ziege</t>
+          <t>Der Hase der isst hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind   Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>das Haus das in der Mitte steht und darauf springt das Schaf</t>
+          <t>Der Löwe der die Kühe zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind   Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Die Kuh schubst die Pferde und diese Pferde sind blau jetzt</t>
+          <t>Der Hund dem ein Huhn einen Ball zuwirft hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc  Case=Nom/Acc Case=Nom/Acc Person=3|Number=Plur|Tense=Pres|PronType=Ind  </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>der der den Keks isst</t>
+          <t>Der Hase der hinfällt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>der Baum in der Mitte 2 der Baum wo die Ziege drunter sitzt</t>
+          <t>Der Ball der rollt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>der der hinfällt der Hase</t>
+          <t>Die Katze die eine Blume bekommt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>das Huhn wo die Maus dem Huhn einen Pfirsich gibt</t>
+          <t>Das Pferd das die zwei Kühe zieht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>die zwei Frösche die die Ente fangen</t>
+          <t>Das Huhn das einen Apfel bekommt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>der Ball 2 Der Ball hat jetzt die Farbe Blau. 3 Der rechte Ball 4 der rollt</t>
+          <t>Der Tisch unter dem ein Frosch sitzt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom  Gender=Masc|Number=Sing|Case=Nom  PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>das erste Pferd das die Kühe zieht</t>
+          <t>Der Frosch der gewaschen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc  Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>der Hund wo das Huhn dem Hund den Ball zuwirft</t>
+          <t>Der Löwe der gezogen wird hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>die beiden Pferden wo die Kuh die Pferde schubst</t>
+          <t>Die zwei Ziegen die die Katze schieben haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Dat  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Gender=Fem|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>die Katze wo das Huhn die Blume der Katze gibt</t>
+          <t>Die zwei Hunde die das Schaf fängt haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>die zwei Hunde wo das Schaf die zwei Hunde fängt</t>
+          <t>Der Baum unter dem eine Ziege sitzt</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>das Haus wo das Schaf drauf hüpft</t>
+          <t>Die zwei Pferde die von der Kuh geschubst werden haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>das Huhn wo der Frosch dem Huhn das zuwirft</t>
+          <t>Die zwei Frösche die die Ente fangen haben eine andere Farbe</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat PronType=Dem|Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|PronType=Ind Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>der Löwe der die Kühe zieht</t>
+          <t>das Haus auf dem das Schaf springt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>der Löwe wo die Katzen den Löwen ziehen</t>
+          <t>Der Hund der die Schafe wäscht hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>die Ziegen wo die Ziegen die Katze schubst</t>
+          <t>Das Bett auf dem die Katze springt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>das Bett worauf die Katze springt</t>
+          <t>Das Huhn das einen Pfirsich bekommt hat eine andere Farbe</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>der Frosch wo die Enten den Frosch wasche</t>
+          <t>der Hase der einen Keks isst</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>der Hund der die Schafe wäscht</t>
+          <t>die beiden Hunde die das Schaf fängt</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Acc PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>der Tisch worunter der Frosch sitzt</t>
+          <t>der Frosch der von den beiden Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>der der den Keks isst</t>
+          <t>der Hase der hingefallen ist</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>der Löwe der von den zwei Katzen gezogen wird</t>
+          <t>der Ball der rollt</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>die zwei Pferde die von der Kuh geschubst werden</t>
+          <t>der Baum unter dem die Ziege sitzt</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>der Hase der hinfällt</t>
+          <t>das Pferd das die beiden Kühe zieht</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>der Ball der rollt</t>
+          <t>die beiden Pferde die die Kuh schubst</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>der Hund der die zwei Schafe wäscht</t>
+          <t>der Hund dem das Huhn den Ball zuwirft</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>das Pferd das die Kühe zieht</t>
+          <t>die beiden Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>die zwei Hunde die von dem Schaf gefangen werden</t>
+          <t>der Tisch unter dem der Frosch sitzt</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>der Löwe der die zerquetscht</t>
+          <t>der Löwe der die beiden Kühe zieht</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Dem|Gender=Fem|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>der Hund der vom Huhn den Ball gefangen bekommen hat</t>
+          <t>der Löwe der von den beiden Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Case=Dat Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc   Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat  Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>der Tisch unter dem der Frosch sitzt</t>
+          <t>das Bett auf dem die Katze springt</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>der Frosch der von den zwei Enten gewaschen wird</t>
+          <t>die beiden Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>die Katze die von der Ente eine Blume bekommt und eine Blume in der Hand hat</t>
+          <t>der Hund der die beiden Schafe wäscht</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>das Huhn der einen Pfirsich hält und der von der Maus einen Pfirsich bekommt</t>
+          <t>das Huhn dem der Frosch einen Apfel zuwirft</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind  PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>der Baum unter dem eine Ziege sitzt</t>
+          <t>die Katze der die Ente eine Blume gibt</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>das Bett auf dem die Katze springt</t>
+          <t>das Huhn dem die Maus einen Pfirsich gibt</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>die Ziegen die die Katze schubsen</t>
+          <t>das Haus auf dem das Schaf springt</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>die Frösche die die Ente</t>
+          <t>der Hase der einen Keks isst</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>der Hase mit dem Keks</t>
+          <t>die Ziegen die die Katze schubsen</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>die Maus gibt dem was und der freut sich darüber</t>
+          <t>der Hase der hinfällt</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind PronType=Dem|Gender=Masc|Number=Sing|Case=Dat   PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind  </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>der Tisch von dem Frosch der sitzt</t>
+          <t>der Ball der rollt</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>der Hase der fällt</t>
+          <t>die Katze die eine Blume von der Ente erhält</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>der Ball der rollt</t>
+          <t>das Pferd das die Kühe zieht</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>der Frosch der damit geputzt wird von diesem</t>
+          <t>das Bett auf der die Katze springt</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom   Person=3|Number=Sing|Tense=Pres|PronType=Ind  Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Fem|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>das Pferd das die beide Kühe zieht</t>
+          <t>der Tisch unter dem ein Frosch sitzt</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|PronType=Ind|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>der Löwe der von den Katzen gezogen wird</t>
+          <t>das Haus auf dem ein Schaf springt</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|PronType=Ind|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>die beiden Hunde die gezogen werden von dem Schaf</t>
+          <t>das Huhn das einen Pfirsich von der Maus erhält</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  Number=Plur|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>das Haus wo dieses Schaf hüpft</t>
+          <t>der Löwe der von den Katzen gezogen wird</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>die beiden Pferde die von der Kuh geschubst werden</t>
+          <t>die Frösche die die Ente fangen</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>der Hund die die beiden Schafe wascht</t>
+          <t>der Hund der den Ball vom Huhn zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>das Huhn und der Frosch wirft das Huhn da zu</t>
+          <t>der Baum unter dem die Ziege sitzt</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  </t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>der Baum wo das 2 die unter dem Baum sitzt</t>
+          <t>der Löwe der die zwei Kühe zieht</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Dem|Gender=Neut|Number=Sing|Case=Nom/Acc Person=2 PronType=Dem|Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc  Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>die schubsen die Katze und die haben eine andere Farbe</t>
+          <t>das Huhn das den Apfel vom Frosch zugeworfen bekommt</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>PronType=Dem|Number=Plur|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Dem|Number=Plur|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat  Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>die Katze und die Ente gibt der Katze die Blume</t>
+          <t>der Hund der die Schafe wäscht</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>die Frösche die die Ente schubsen</t>
+          <t>die zwei Hunde die vom Schaf gefangen werden</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat  Number=Plur|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>das Bett wo die Katze springt</t>
+          <t>der Frosch der von den Enten gewaschen wird</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>der einen Keks isst</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>der Frosch der sitzt 2 der Frosch 3 der Tisch 4 der da wo der Frosch sitzt und sitzt</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Dem|Gender=Masc|Number=Sing|Case=Nom   PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind  Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>die Katze die eine Blume von die Ente bekommen hat</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Fem|Number=Sing|Case=Nom/Acc PronType=Art|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>der hingefallen ist 2 der Hase</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>der rollt 2 der Kreis der Ball 3 der rollt</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind Person=2 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3 PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>das Schaf zieht die Hunde und die Hunde haben die andere Farbe</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>das Pferd das die Kuh zieht</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>der Frosch der hinten die Ente fangt</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>da wo das Schaf sitzt und springt und auf das Haus springt und das Haus hat die andere Farbe</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind  Number=Sing|Tense=Pres|PronType=Ind   PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>die Ziegen hinten die die Katze schubst</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc  PronType=Rel|Number=Plur|Case=Nom/Acc PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>Die Maus gibt dem Huhn eine Apfel und das Huhn hat eine andere Farbe</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat PronType=Art|Number=Sing|Case=Nom/Acc Number=Sing  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>Die Kuh schubst die Pferde und die Pferde haben die andere Farbe</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc  PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>der Löwe vorne der die Kühe zieht</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>Die Katzen ziehen den Löwe und der hintere Löwe hat eine andere Farbe</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom  Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>Da wo die Katze springt und sitzt und das Bett ist eine andere Farbe</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind  Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Gender=Fem|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>das Huhn gibt den Huhn einen Ball und der Hund ist blau hinten</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing PronType=Art|Number=Sing|Case=Acc Number=Sing|Case=Acc  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind  </t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>der Hund der die Schafe wäscht</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>da wo die Ziege sitzt und der Baum hat eine andere Farbe</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Nom/Acc  Gender=Fem|Number=Sing|Case=Nom/Acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>der einen Keks nascht 2 dass er blau ist und einen Keks nascht 3 Er esst einen Keks und er ist blau</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PronType=Dem|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=2  Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind  PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Number=Sing|Tense=Pres|PronType=Ind Person=3 Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind PronType=Art|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind </t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>das Haus wo das Schaf springt</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>der Hase der hingefallen ist</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>der Ball der rollt</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>das Pferd das die Kühe zieht</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc PronType=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>die zwei Pferde 2 Die zwei Pferde sind blau und zwei Pferde sind weiß. 3 die Pferde</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Person=2 PronType=Art|Definite=Def|Number=Plur|Case=Nom  Case=Nom Person=3|Number=Plur|Tense=Pres|PronType=Ind    Case=Nom Person=3|Number=Plur|Tense=Pres|PronType=Ind  Person=3 PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>der Hund der den Ball auffangen möchte</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc  Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>der Löwe der die Kühe zieht</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>die Katzen ziehen den blauen Löwen</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom Case=Nom Number=Plur|Tense=Pres|PronType=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Number=Sing|Case=Acc Number=Sing|Case=Acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>der Hund 2 Ein Hund ist weiß und ein Hund ist blau. 3 der Hund der die Schafe wäscht</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=2 Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind   Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Person=3|Number=Sing|Tense=Pres|PronType=Ind  Person=3 PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Number=Plur|Case=Acc Case=Acc Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>der Baum wo das Schaf sitzt</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>die Schafe die die Katze schubsen</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc PronType=Rel|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|PronType=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>der Tisch wo der Frosch drunter sitzt</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|PronType=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Rel|Gender=Masc|Number=Sing|Case=Nom  PronType=Art|Definite=Def|Number=Plur|Case=Dat Case=Dat  Person=3|Number=Sing|Tense=Pres|PronType=Ind</t>
         </is>
       </c>
     </row>
